--- a/Kernel Beispiel.xlsx
+++ b/Kernel Beispiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Development\Desktop\Fachreferat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FAE481-815E-430C-A8C5-9D502EED96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291EC88F-74B9-4549-B9F1-1822FD9519AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conv-example" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Input</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>filter 1</t>
+  </si>
+  <si>
+    <t>Source: https://github.com/fastai/courses/tree/master</t>
   </si>
 </sst>
 </file>
@@ -891,10 +894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG57"/>
+  <dimension ref="A1:BG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF46" sqref="AF46"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7924,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH49">
         <f t="array" ref="AH49">SUM(A19:C21*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8030,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH50">
         <f t="array" ref="AH50">SUM(A20:C22*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8136,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH51">
         <f t="array" ref="AH51">SUM(A21:C23*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8242,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH52">
         <f t="array" ref="AH52">SUM(A22:C24*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8348,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH53">
         <f t="array" ref="AH53">SUM(A23:C25*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8454,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH54">
         <f t="array" ref="AH54">SUM(A24:C26*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8560,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH55">
         <f t="array" ref="AH55">SUM(A25:C27*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8666,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH56">
         <f t="array" ref="AH56">SUM(A26:C28*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8772,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="34:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AH57">
         <f t="array" ref="AH57">SUM(A27:C29*$AD$38:$AF$40)</f>
         <v>0</v>
@@ -8878,9 +8881,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="AH3:BG28">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="A2:AB29">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8891,8 +8899,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB29">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AH3:BG28">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Kernel Beispiel.xlsx
+++ b/Kernel Beispiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Development\Desktop\Fachreferat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291EC88F-74B9-4549-B9F1-1822FD9519AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DC9CD-B458-4490-ABB5-F77A7E644B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1755" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conv-example" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
     <t>Conv1</t>
   </si>
   <si>
-    <t>filter 2</t>
+    <t>Source: https://github.com/fastai/courses/tree/master</t>
   </si>
   <si>
-    <t>filter 1</t>
+    <t>Kernel 1</t>
   </si>
   <si>
-    <t>Source: https://github.com/fastai/courses/tree/master</t>
+    <t>Kernel 2</t>
   </si>
 </sst>
 </file>
@@ -896,8 +896,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BN31" sqref="BN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="36" spans="30:59" x14ac:dyDescent="0.25">
       <c r="AD36" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH36">
         <f t="array" ref="AH36">SUM(A6:C8*$AD$38:$AF$40)</f>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
